--- a/实验结果(2-24)改.xlsx
+++ b/实验结果(2-24)改.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12795" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="12570" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="4.19" sheetId="1" r:id="rId1"/>
@@ -184,14 +184,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -211,13 +211,6 @@
       <color rgb="FF303030"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -243,22 +236,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -267,29 +245,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,8 +290,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,16 +328,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -390,13 +390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,31 +432,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,37 +480,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +522,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,49 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,8 +618,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,50 +644,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,6 +677,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -720,148 +720,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -872,10 +872,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -893,22 +893,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -920,15 +920,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -944,16 +944,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,70 +962,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3612,7 +3612,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2844800" y="3057525"/>
+        <a:off x="2844800" y="3095625"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -3888,7 +3888,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -4061,8 +4061,8 @@
         <v>0.713666666666667</v>
       </c>
       <c r="U3" s="53">
-        <f>(108.1*T3-0.2735)/10</f>
-        <v>7.68738666666667</v>
+        <f>(108.1*T3-0.2735)/5</f>
+        <v>15.3747733333333</v>
       </c>
       <c r="V3" s="28">
         <v>6.43</v>
@@ -4142,8 +4142,8 @@
         <v>0.341633333333333</v>
       </c>
       <c r="U4" s="53">
-        <f t="shared" ref="U4:U10" si="7">(108.1*T4-0.2735)/10</f>
-        <v>3.66570633333333</v>
+        <f t="shared" ref="U4:U10" si="7">(108.1*T4-0.2735)/5</f>
+        <v>7.33141266666666</v>
       </c>
       <c r="V4" s="28">
         <v>6.45</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="U5" s="53">
         <f t="shared" si="7"/>
-        <v>3.08593</v>
+        <v>6.17186</v>
       </c>
       <c r="V5" s="28">
         <v>6.47</v>
@@ -4305,7 +4305,7 @@
       </c>
       <c r="U6" s="53">
         <f t="shared" si="7"/>
-        <v>3.02467333333333</v>
+        <v>6.04934666666666</v>
       </c>
       <c r="V6" s="28">
         <v>6.52</v>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="U7" s="53">
         <f t="shared" si="7"/>
-        <v>4.57771</v>
+        <v>9.15542</v>
       </c>
       <c r="V7" s="28">
         <v>6.51</v>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="U8" s="53">
         <f t="shared" si="7"/>
-        <v>1.79593666666667</v>
+        <v>3.59187333333334</v>
       </c>
       <c r="V8" s="28">
         <v>6.54</v>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="U9" s="53">
         <f t="shared" si="7"/>
-        <v>2.40850333333333</v>
+        <v>4.81700666666666</v>
       </c>
       <c r="V9" s="28">
         <v>6.49</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="U10" s="53">
         <f t="shared" si="7"/>
-        <v>2.97062333333333</v>
+        <v>5.94124666666666</v>
       </c>
       <c r="V10" s="28">
         <v>6.46</v>
@@ -4885,8 +4885,8 @@
   <sheetPr/>
   <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -5024,8 +5024,8 @@
       </c>
       <c r="L3" s="31"/>
       <c r="M3" s="37">
-        <f>(K3*0.2816-0.0144)/50*1000</f>
-        <v>3.468544</v>
+        <f>(K3*0.2816-0.0144)/5*1000</f>
+        <v>34.68544</v>
       </c>
       <c r="N3" s="40">
         <v>0.688</v>
@@ -5093,8 +5093,8 @@
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="37">
-        <f t="shared" ref="M4:M10" si="5">(K4*0.2816-0.0144)/50*1000</f>
-        <v>1.379072</v>
+        <f t="shared" ref="M4:M10" si="5">(K4*0.2816-0.0144)/5*1000</f>
+        <v>13.79072</v>
       </c>
       <c r="N4" s="42">
         <v>0.31</v>
@@ -5162,7 +5162,7 @@
       <c r="L5" s="31"/>
       <c r="M5" s="37">
         <f t="shared" si="5"/>
-        <v>1.215744</v>
+        <v>12.15744</v>
       </c>
       <c r="N5" s="40">
         <v>0.228</v>
@@ -5230,7 +5230,7 @@
       <c r="L6" s="31"/>
       <c r="M6" s="37">
         <f t="shared" si="5"/>
-        <v>1.20448</v>
+        <v>12.0448</v>
       </c>
       <c r="N6" s="40">
         <v>0.277</v>
@@ -5298,7 +5298,7 @@
       <c r="L7" s="31"/>
       <c r="M7" s="37">
         <f t="shared" si="5"/>
-        <v>1.00736</v>
+        <v>10.0736</v>
       </c>
       <c r="N7" s="40">
         <v>0.207</v>
@@ -5366,7 +5366,7 @@
       <c r="L8" s="31"/>
       <c r="M8" s="37">
         <f t="shared" si="5"/>
-        <v>0.889088</v>
+        <v>8.89088</v>
       </c>
       <c r="N8" s="40">
         <v>0.204</v>
@@ -5434,7 +5434,7 @@
       <c r="L9" s="31"/>
       <c r="M9" s="37">
         <f t="shared" si="5"/>
-        <v>1.097472</v>
+        <v>10.97472</v>
       </c>
       <c r="N9" s="40">
         <v>0.168</v>
@@ -5502,7 +5502,7 @@
       <c r="L10" s="31"/>
       <c r="M10" s="37">
         <f t="shared" si="5"/>
-        <v>0.534272</v>
+        <v>5.34272</v>
       </c>
       <c r="N10" s="40">
         <v>0.253</v>
@@ -6113,7 +6113,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
@@ -7323,7 +7323,7 @@
   <dimension ref="A1:Y13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
@@ -7583,7 +7583,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" ht="15.75" spans="1:25">
       <c r="A5" s="14" t="s">
         <v>17</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" ht="15.75" spans="1:25">
       <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" ht="15.75" spans="1:25">
       <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
@@ -8057,7 +8057,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" ht="15.75" spans="1:25">
       <c r="A11" s="14"/>
       <c r="B11" s="14" t="s">
         <v>29</v>
@@ -8198,7 +8198,7 @@
   <sheetPr/>
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -8252,7 +8252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:25">
+    <row r="2" spans="1:25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
@@ -8305,7 +8305,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" ht="15.75" spans="1:25">
+    <row r="3" spans="1:25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -8387,7 +8387,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:25">
+    <row r="4" spans="1:25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>23.6</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" ht="15.75" spans="1:25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" ht="15.75" spans="1:25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" ht="15.75" spans="1:25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" ht="15.75" spans="1:25">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" ht="15.75" spans="1:25">
       <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" ht="15.75" spans="1:25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -8975,7 +8975,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" ht="15.75" spans="1:25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>29</v>
